--- a/src/cloud/tests/GL/GL_Argentina/ReversingaPostedJournalBatchITC_Test.xlsx
+++ b/src/cloud/tests/GL/GL_Argentina/ReversingaPostedJournalBatchITC_Test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\GL\GL_Argentina\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6830EFCA-2702-42B2-AD42-8014DEF7133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13200" windowHeight="4470"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -46,9 +52,6 @@
     <t>{password}</t>
   </si>
   <si>
-    <t>Navigate_More</t>
-  </si>
-  <si>
     <t>appl</t>
   </si>
   <si>
@@ -80,12 +83,15 @@
   </si>
   <si>
     <t>NOV-20</t>
+  </si>
+  <si>
+    <t>Navigate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,34 +513,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="12" width="35.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="0.85546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="0.81640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="35.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="0.81640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,16 +550,16 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -564,22 +570,22 @@
         <v>3</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -587,26 +593,26 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="9"/>
       <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -619,7 +625,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://rws-fap1313-fs.oracledemos.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://rws-fap1313-fs.oracledemos.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -627,12 +633,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
